--- a/_DATA/Berg_usable_data.xlsx
+++ b/_DATA/Berg_usable_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Geologie\2e Master\Masterthesis\GSD data\Surfer\Berg\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Documenten\Programming\Python\Jupyter_Notebooks\PROJECTS\Compositional_data_kriging\_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TZ" sheetId="3" r:id="rId1"/>
@@ -281,7 +281,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,23 +372,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -424,23 +407,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,13 +585,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -696,7 +674,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -764,7 +742,7 @@
         <v>99.866666670000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -832,7 +810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -900,7 +878,7 @@
         <v>99.942857140000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -968,7 +946,7 @@
         <v>99.94</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1014,7 @@
         <v>99.924999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1082,7 @@
         <v>99.974999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1172,7 +1150,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1240,7 +1218,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1376,7 +1354,7 @@
         <v>99.97142857</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1444,7 +1422,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1512,7 +1490,7 @@
         <v>99.933333329999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1580,7 +1558,7 @@
         <v>99.866666670000001</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1648,7 +1626,7 @@
         <v>99.93</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1716,7 +1694,7 @@
         <v>99.922222219999995</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1784,7 +1762,7 @@
         <v>99.936363639999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1852,7 +1830,7 @@
         <v>99.907692310000002</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1898,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +1966,7 @@
         <v>99.954545449999998</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2056,7 +2034,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2124,7 +2102,7 @@
         <v>99.963636359999995</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2192,7 +2170,7 @@
         <v>99.966666669999995</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2260,7 +2238,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2328,7 +2306,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +2374,7 @@
         <v>99.96</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2464,7 +2442,7 @@
         <v>99.974999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2532,7 +2510,7 @@
         <v>100.0142857</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2600,7 +2578,7 @@
         <v>99.957142860000005</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2668,7 +2646,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2736,7 +2714,7 @@
         <v>99.957142860000005</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2804,7 +2782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2872,7 +2850,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2940,7 +2918,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -3008,7 +2986,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -3076,7 +3054,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -3144,7 +3122,7 @@
         <v>99.957142860000005</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -3212,7 +3190,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3280,7 +3258,7 @@
         <v>99.928571430000005</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3357,13 +3335,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3434,7 +3425,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3502,7 +3493,7 @@
         <v>99.928571430000005</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3570,7 +3561,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3638,7 +3629,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3706,7 +3697,7 @@
         <v>99.912499999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3774,7 +3765,7 @@
         <v>99.877777780000002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3842,7 +3833,7 @@
         <v>99.97</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3910,7 +3901,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3978,7 +3969,7 @@
         <v>99.922222219999995</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4046,7 +4037,7 @@
         <v>99.933333329999996</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4114,7 +4105,7 @@
         <v>99.915000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4182,7 +4173,7 @@
         <v>99.877272730000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -4250,7 +4241,7 @@
         <v>99.906666670000007</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4318,7 +4309,7 @@
         <v>99.930769229999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -4386,7 +4377,7 @@
         <v>99.92</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4454,7 +4445,7 @@
         <v>99.92</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4522,7 +4513,7 @@
         <v>99.915384619999998</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4590,7 +4581,7 @@
         <v>99.977777779999997</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4658,7 +4649,7 @@
         <v>99.946153850000002</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -4726,7 +4717,7 @@
         <v>99.931578950000002</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -4794,7 +4785,7 @@
         <v>99.931578950000002</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -4862,7 +4853,7 @@
         <v>99.91</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -4930,7 +4921,7 @@
         <v>99.911111109999993</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4998,7 +4989,7 @@
         <v>99.918181820000001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -5066,7 +5057,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -5134,7 +5125,7 @@
         <v>99.969565220000007</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -5202,7 +5193,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -5270,7 +5261,7 @@
         <v>99.953333330000007</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5338,7 +5329,7 @@
         <v>99.933333329999996</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -5406,7 +5397,7 @@
         <v>99.956521739999999</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -5474,7 +5465,7 @@
         <v>99.96153846</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -5542,7 +5533,7 @@
         <v>99.99</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -5610,7 +5601,7 @@
         <v>99.984615379999994</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -5678,7 +5669,7 @@
         <v>99.96875</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -5746,7 +5737,7 @@
         <v>99.942857140000001</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -5814,7 +5805,7 @@
         <v>99.93</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -5882,7 +5873,7 @@
         <v>99.954545449999998</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -5950,7 +5941,7 @@
         <v>99.92</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -6018,7 +6009,7 @@
         <v>99.924999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -6096,12 +6087,15 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6172,7 +6166,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6240,7 +6234,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6308,7 +6302,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -6376,7 +6370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -6444,7 +6438,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -6512,7 +6506,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -6580,7 +6574,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -6648,7 +6642,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -6716,7 +6710,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6784,7 +6778,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6852,7 +6846,7 @@
         <v>99.918181820000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -6920,7 +6914,7 @@
         <v>99.871428570000006</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -6988,7 +6982,7 @@
         <v>99.875</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7056,7 +7050,7 @@
         <v>99.888888890000004</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -7124,7 +7118,7 @@
         <v>99.914285710000001</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -7192,7 +7186,7 @@
         <v>99.936363639999996</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -7260,7 +7254,7 @@
         <v>99.929411759999994</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7328,7 +7322,7 @@
         <v>99.923809520000006</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -7396,7 +7390,7 @@
         <v>99.945454549999994</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -7464,7 +7458,7 @@
         <v>99.886666669999997</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -7532,7 +7526,7 @@
         <v>99.930769229999996</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -7600,7 +7594,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -7668,7 +7662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -7736,7 +7730,7 @@
         <v>99.95</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -7804,7 +7798,7 @@
         <v>99.962500000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -7872,7 +7866,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -7940,7 +7934,7 @@
         <v>99.994117650000007</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -8008,7 +8002,7 @@
         <v>100.01</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -8076,7 +8070,7 @@
         <v>100.0666667</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -8144,7 +8138,7 @@
         <v>99.955555559999993</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -8212,7 +8206,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -8280,7 +8274,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -8348,7 +8342,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -8416,7 +8410,7 @@
         <v>99.905882349999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -8484,7 +8478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -8552,7 +8546,7 @@
         <v>99.933333329999996</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
